--- a/Excel/默认输入配置.xlsx
+++ b/Excel/默认输入配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15045" windowHeight="12210"/>
+    <workbookView windowWidth="19200" windowHeight="6280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>DefInputConfig</t>
   </si>
@@ -59,25 +59,25 @@
     <t>服务器接收指令</t>
   </si>
   <si>
-    <t>w</t>
+    <t>W</t>
   </si>
   <si>
     <t>move_forward</t>
   </si>
   <si>
-    <t>s</t>
+    <t>S</t>
   </si>
   <si>
     <t>move_backward</t>
   </si>
   <si>
-    <t>a</t>
+    <t>A</t>
   </si>
   <si>
     <t>move_left</t>
   </si>
   <si>
-    <t>d</t>
+    <t>D</t>
   </si>
   <si>
     <t>move_right</t>
@@ -89,10 +89,16 @@
     <t>move</t>
   </si>
   <si>
-    <t>shift</t>
+    <t>Shift</t>
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>BackQuote</t>
+  </si>
+  <si>
+    <t>controller</t>
   </si>
 </sst>
 </file>
@@ -1030,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -1165,6 +1171,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/默认输入配置.xlsx
+++ b/Excel/默认输入配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6280"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>move</t>
   </si>
   <si>
-    <t>Shift</t>
+    <t>LeftShift</t>
   </si>
   <si>
     <t>run</t>
@@ -1042,7 +1042,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
